--- a/策划案/Java/采桑子OA/采桑子权限设计v0.6.xlsx
+++ b/策划案/Java/采桑子OA/采桑子权限设计v0.6.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA7E4A-8905-4D5A-8796-F5A8FD82F289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C36F7-04B6-4D1B-9A27-EEFBF0D84A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="进度规划" sheetId="83" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2769,6 +2770,36 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,36 +2845,6 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2877,30 +2878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2909,15 +2886,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2942,6 +2910,39 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4983,12 +4984,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -4997,10 +4998,10 @@
       <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="70" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5011,26 +5012,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5039,10 +5040,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -5051,10 +5052,10 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="2:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44">
@@ -5063,10 +5064,10 @@
       <c r="C9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="2:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -5075,10 +5076,10 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="71"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -5087,10 +5088,10 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -5099,121 +5100,117 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -5225,12 +5222,16 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -5259,7 +5260,7 @@
   <dimension ref="A1:AN207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="T117" sqref="T117"/>
+      <selection activeCell="AF118" sqref="AF118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7471,61 +7472,61 @@
         <v>168</v>
       </c>
       <c r="C2" s="48"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="105"/>
       <c r="S2" s="46"/>
       <c r="T2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="94" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="92" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="92" t="s">
+      <c r="R3" s="106" t="s">
         <v>177</v>
       </c>
       <c r="S3" s="46"/>
@@ -7533,11 +7534,11 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="46"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="49" t="s">
         <v>178</v>
       </c>
@@ -7568,23 +7569,23 @@
       <c r="P4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="89" t="s">
         <v>333</v>
       </c>
       <c r="F5" s="50" t="s">
@@ -7611,10 +7612,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="50" t="s">
         <v>336</v>
       </c>
@@ -7639,10 +7640,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="50" t="s">
         <v>337</v>
       </c>
@@ -7667,10 +7668,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="50" t="s">
         <v>338</v>
       </c>
@@ -7695,10 +7696,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="50" t="s">
         <v>339</v>
       </c>
@@ -7723,10 +7724,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="50" t="s">
         <v>341</v>
       </c>
@@ -7751,10 +7752,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="50" t="s">
         <v>342</v>
       </c>
@@ -7777,10 +7778,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="50" t="s">
         <v>343</v>
       </c>
@@ -7805,10 +7806,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="50" t="s">
         <v>344</v>
       </c>
@@ -7833,10 +7834,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="50" t="s">
         <v>345</v>
       </c>
@@ -7861,10 +7862,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="50" t="s">
         <v>346</v>
       </c>
@@ -7889,10 +7890,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="97" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="89" t="s">
         <v>347</v>
       </c>
       <c r="F16" s="50" t="s">
@@ -7919,10 +7920,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="50" t="s">
         <v>349</v>
       </c>
@@ -7947,10 +7948,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="50" t="s">
         <v>350</v>
       </c>
@@ -7975,10 +7976,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="50" t="s">
         <v>351</v>
       </c>
@@ -8003,10 +8004,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="50" t="s">
         <v>352</v>
       </c>
@@ -8031,10 +8032,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="50" t="s">
         <v>353</v>
       </c>
@@ -8059,10 +8060,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="97" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="89" t="s">
         <v>354</v>
       </c>
       <c r="F22" s="50" t="s">
@@ -8089,10 +8090,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="50" t="s">
         <v>356</v>
       </c>
@@ -8117,10 +8118,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="50" t="s">
         <v>357</v>
       </c>
@@ -8145,10 +8146,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="99"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="50" t="s">
         <v>358</v>
       </c>
@@ -8173,10 +8174,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="89" t="s">
         <v>359</v>
       </c>
       <c r="F26" s="50" t="s">
@@ -8203,10 +8204,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="50" t="s">
         <v>361</v>
       </c>
@@ -8231,10 +8232,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="50" t="s">
         <v>362</v>
       </c>
@@ -8259,10 +8260,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="50" t="s">
         <v>363</v>
       </c>
@@ -8287,10 +8288,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="50" t="s">
         <v>364</v>
       </c>
@@ -8315,10 +8316,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="97" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="89" t="s">
         <v>365</v>
       </c>
       <c r="F31" s="50" t="s">
@@ -8345,10 +8346,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="50" t="s">
         <v>367</v>
       </c>
@@ -8373,10 +8374,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="50" t="s">
         <v>368</v>
       </c>
@@ -8401,10 +8402,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="50" t="s">
         <v>369</v>
       </c>
@@ -8429,12 +8430,12 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="92" t="s">
         <v>371</v>
       </c>
       <c r="F35" s="50" t="s">
@@ -8461,10 +8462,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="101"/>
-      <c r="E36" s="104"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="50" t="s">
         <v>373</v>
       </c>
@@ -8489,10 +8490,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="101"/>
-      <c r="E37" s="104"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="50" t="s">
         <v>374</v>
       </c>
@@ -8517,10 +8518,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="101"/>
-      <c r="E38" s="104"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="50" t="s">
         <v>375</v>
       </c>
@@ -8545,10 +8546,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="101"/>
-      <c r="E39" s="104"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="50" t="s">
         <v>376</v>
       </c>
@@ -8573,10 +8574,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="101"/>
-      <c r="E40" s="104"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="50" t="s">
         <v>377</v>
       </c>
@@ -8601,10 +8602,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="101"/>
-      <c r="E41" s="104"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="50" t="s">
         <v>378</v>
       </c>
@@ -8629,10 +8630,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="101"/>
-      <c r="E42" s="104"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="50" t="s">
         <v>379</v>
       </c>
@@ -8657,10 +8658,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="101"/>
-      <c r="E43" s="105"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="50" t="s">
         <v>380</v>
       </c>
@@ -8685,10 +8686,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="101"/>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="92" t="s">
         <v>381</v>
       </c>
       <c r="F44" s="50" t="s">
@@ -8715,10 +8716,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="101"/>
-      <c r="E45" s="104"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="50" t="s">
         <v>383</v>
       </c>
@@ -8743,10 +8744,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="101"/>
-      <c r="E46" s="104"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="50" t="s">
         <v>384</v>
       </c>
@@ -8771,10 +8772,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="101"/>
-      <c r="E47" s="104"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="50" t="s">
         <v>385</v>
       </c>
@@ -8799,10 +8800,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="101"/>
-      <c r="E48" s="104"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="50" t="s">
         <v>386</v>
       </c>
@@ -8827,10 +8828,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="102"/>
-      <c r="E49" s="105"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="50" t="s">
         <v>387</v>
       </c>
@@ -8855,12 +8856,12 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="97" t="s">
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="E50" s="97" t="s">
+      <c r="E50" s="89" t="s">
         <v>389</v>
       </c>
       <c r="F50" s="50" t="s">
@@ -8887,10 +8888,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="50" t="s">
         <v>392</v>
       </c>
@@ -8915,10 +8916,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="50" t="s">
         <v>393</v>
       </c>
@@ -8943,10 +8944,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="50" t="s">
         <v>394</v>
       </c>
@@ -8971,10 +8972,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
       <c r="F54" s="50" t="s">
         <v>395</v>
       </c>
@@ -8999,10 +9000,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="99"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="91"/>
       <c r="F55" s="50" t="s">
         <v>396</v>
       </c>
@@ -9027,9 +9028,9 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="106"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="52" t="s">
         <v>397</v>
       </c>
@@ -9057,9 +9058,9 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="107" t="s">
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="96" t="s">
         <v>399</v>
       </c>
       <c r="E57" s="52" t="s">
@@ -9087,9 +9088,9 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
       <c r="E58" s="52" t="s">
         <v>402</v>
       </c>
@@ -9115,9 +9116,9 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
       <c r="E59" s="52" t="s">
         <v>403</v>
       </c>
@@ -9143,9 +9144,9 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="52" t="s">
         <v>404</v>
       </c>
@@ -9170,36 +9171,36 @@
       <c r="T60" s="46"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="108"/>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="110"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
+      <c r="P61" s="98"/>
+      <c r="Q61" s="98"/>
+      <c r="R61" s="98"/>
+      <c r="S61" s="98"/>
+      <c r="T61" s="99"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="46"/>
-      <c r="B62" s="97" t="s">
+      <c r="B62" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D62" s="107" t="s">
+      <c r="D62" s="96" t="s">
         <v>407</v>
       </c>
       <c r="E62" s="52" t="s">
@@ -9227,9 +9228,9 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="52" t="s">
         <v>410</v>
       </c>
@@ -9255,9 +9256,9 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="97" t="s">
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="89" t="s">
         <v>333</v>
       </c>
       <c r="E64" s="52" t="s">
@@ -9285,9 +9286,9 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="52" t="s">
         <v>412</v>
       </c>
@@ -9313,9 +9314,9 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="52" t="s">
         <v>413</v>
       </c>
@@ -9341,9 +9342,9 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="52" t="s">
         <v>414</v>
       </c>
@@ -9369,9 +9370,9 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="46"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="99"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="91"/>
       <c r="E68" s="52" t="s">
         <v>415</v>
       </c>
@@ -9397,9 +9398,9 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="46"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="97" t="s">
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="89" t="s">
         <v>347</v>
       </c>
       <c r="E69" s="52" t="s">
@@ -9427,9 +9428,9 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="98"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
       <c r="E70" s="52" t="s">
         <v>417</v>
       </c>
@@ -9455,9 +9456,9 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="52" t="s">
         <v>418</v>
       </c>
@@ -9483,9 +9484,9 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="52" t="s">
         <v>419</v>
       </c>
@@ -9511,9 +9512,9 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="99"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="91"/>
       <c r="E73" s="52" t="s">
         <v>415</v>
       </c>
@@ -9539,9 +9540,9 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="97" t="s">
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="89" t="s">
         <v>420</v>
       </c>
       <c r="E74" s="52" t="s">
@@ -9565,9 +9566,9 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="46"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="52" t="s">
         <v>422</v>
       </c>
@@ -9589,9 +9590,9 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="46"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
       <c r="E76" s="52" t="s">
         <v>423</v>
       </c>
@@ -9613,9 +9614,9 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="46"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="52" t="s">
         <v>374</v>
       </c>
@@ -9637,9 +9638,9 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="46"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
       <c r="E78" s="52" t="s">
         <v>380</v>
       </c>
@@ -9661,9 +9662,9 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="46"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="99"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="91"/>
       <c r="E79" s="52" t="s">
         <v>415</v>
       </c>
@@ -9685,9 +9686,9 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="46"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="97" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="89" t="s">
         <v>354</v>
       </c>
       <c r="E80" s="52"/>
@@ -9709,9 +9710,9 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="46"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="98"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="52"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
@@ -9731,9 +9732,9 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="46"/>
-      <c r="B82" s="98"/>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
       <c r="E82" s="52"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
@@ -9753,9 +9754,9 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="99"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="91"/>
       <c r="E83" s="52" t="s">
         <v>415</v>
       </c>
@@ -9777,9 +9778,9 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="97" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="89" t="s">
         <v>359</v>
       </c>
       <c r="E84" s="52" t="s">
@@ -9807,9 +9808,9 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="98"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="52" t="s">
         <v>426</v>
       </c>
@@ -9835,9 +9836,9 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
-      <c r="B86" s="98"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="98"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="52" t="s">
         <v>427</v>
       </c>
@@ -9863,9 +9864,9 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="46"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="99"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="52" t="s">
         <v>415</v>
       </c>
@@ -9891,9 +9892,9 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="46"/>
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="97" t="s">
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="89" t="s">
         <v>428</v>
       </c>
       <c r="E88" s="52" t="s">
@@ -9921,9 +9922,9 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="98"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="52" t="s">
         <v>430</v>
       </c>
@@ -9949,9 +9950,9 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="46"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="98"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="52" t="s">
         <v>431</v>
       </c>
@@ -9977,9 +9978,9 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="46"/>
-      <c r="B91" s="98"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="99"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="91"/>
       <c r="E91" s="52" t="s">
         <v>415</v>
       </c>
@@ -10005,9 +10006,9 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
-      <c r="B92" s="98"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="97" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="89" t="s">
         <v>432</v>
       </c>
       <c r="E92" s="52" t="s">
@@ -10035,9 +10036,9 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
-      <c r="B93" s="98"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="98"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="52" t="s">
         <v>434</v>
       </c>
@@ -10063,9 +10064,9 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="46"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="98"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
       <c r="E94" s="52" t="s">
         <v>435</v>
       </c>
@@ -10091,9 +10092,9 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="46"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="52" t="s">
         <v>436</v>
       </c>
@@ -10119,9 +10120,9 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="46"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="99"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="91"/>
       <c r="E96" s="52" t="s">
         <v>415</v>
       </c>
@@ -10145,9 +10146,9 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="46"/>
-      <c r="B97" s="98"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="97" t="s">
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="89" t="s">
         <v>437</v>
       </c>
       <c r="E97" s="52" t="s">
@@ -10175,9 +10176,9 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="46"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="99"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
       <c r="E98" s="52" t="s">
         <v>440</v>
       </c>
@@ -10203,11 +10204,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="D35:D49"/>
+    <mergeCell ref="E35:E43"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E44:E49"/>
     <mergeCell ref="D50:D56"/>
@@ -10224,21 +10235,11 @@
     <mergeCell ref="D5:D34"/>
     <mergeCell ref="E5:E15"/>
     <mergeCell ref="E16:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="D35:D49"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D96"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13646,6 +13647,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -13654,9 +13658,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
